--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag1-Cd46.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag1-Cd46.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H2">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I2">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J2">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.397242000000001</v>
+        <v>5.483544666666667</v>
       </c>
       <c r="N2">
-        <v>16.191726</v>
+        <v>16.450634</v>
       </c>
       <c r="O2">
-        <v>0.4331003391330406</v>
+        <v>0.4099269772514247</v>
       </c>
       <c r="P2">
-        <v>0.4331003391330406</v>
+        <v>0.4099269772514247</v>
       </c>
       <c r="Q2">
-        <v>87.02882352060867</v>
+        <v>107.3734270344649</v>
       </c>
       <c r="R2">
-        <v>783.2594116854781</v>
+        <v>966.3608433101841</v>
       </c>
       <c r="S2">
-        <v>0.1280024005074371</v>
+        <v>0.1446713899211912</v>
       </c>
       <c r="T2">
-        <v>0.1280024005074372</v>
+        <v>0.1446713899211912</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H3">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I3">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J3">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.118937</v>
       </c>
       <c r="O3">
-        <v>0.3509086099755513</v>
+        <v>0.32690571008764</v>
       </c>
       <c r="P3">
-        <v>0.3509086099755513</v>
+        <v>0.32690571008764</v>
       </c>
       <c r="Q3">
-        <v>70.51290597129565</v>
+        <v>85.62741258113466</v>
       </c>
       <c r="R3">
-        <v>634.616153741661</v>
+        <v>770.646713230212</v>
       </c>
       <c r="S3">
-        <v>0.1037107117614166</v>
+        <v>0.1153715321900993</v>
       </c>
       <c r="T3">
-        <v>0.1037107117614167</v>
+        <v>0.1153715321900994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H4">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I4">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J4">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.092643333333333</v>
+        <v>2.750327</v>
       </c>
       <c r="N4">
-        <v>6.27793</v>
+        <v>8.250980999999999</v>
       </c>
       <c r="O4">
-        <v>0.1679236427329297</v>
+        <v>0.2056029999019452</v>
       </c>
       <c r="P4">
-        <v>0.1679236427329297</v>
+        <v>0.2056029999019452</v>
       </c>
       <c r="Q4">
-        <v>33.74321317225444</v>
+        <v>53.85422266195066</v>
       </c>
       <c r="R4">
-        <v>303.6889185502899</v>
+        <v>484.688003957556</v>
       </c>
       <c r="S4">
-        <v>0.04962967568853714</v>
+        <v>0.07256139121953235</v>
       </c>
       <c r="T4">
-        <v>0.04962967568853715</v>
+        <v>0.07256139121953235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H5">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I5">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J5">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5990099999999999</v>
+        <v>0.770031</v>
       </c>
       <c r="N5">
-        <v>1.79703</v>
+        <v>2.310093</v>
       </c>
       <c r="O5">
-        <v>0.04806740815847845</v>
+        <v>0.05756431275899004</v>
       </c>
       <c r="P5">
-        <v>0.04806740815847846</v>
+        <v>0.05756431275899004</v>
       </c>
       <c r="Q5">
-        <v>9.658847162509998</v>
+        <v>15.077996518452</v>
       </c>
       <c r="R5">
-        <v>86.92962446258998</v>
+        <v>135.701968666068</v>
       </c>
       <c r="S5">
-        <v>0.01420627756323691</v>
+        <v>0.02031559179769086</v>
       </c>
       <c r="T5">
-        <v>0.01420627756323691</v>
+        <v>0.02031559179769087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>44.06925</v>
       </c>
       <c r="I6">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J6">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.397242000000001</v>
+        <v>5.483544666666667</v>
       </c>
       <c r="N6">
-        <v>16.191726</v>
+        <v>16.450634</v>
       </c>
       <c r="O6">
-        <v>0.4331003391330406</v>
+        <v>0.4099269772514247</v>
       </c>
       <c r="P6">
-        <v>0.4331003391330406</v>
+        <v>0.4099269772514247</v>
       </c>
       <c r="Q6">
-        <v>79.2841356695</v>
+        <v>80.55190026716666</v>
       </c>
       <c r="R6">
-        <v>713.5572210255001</v>
+        <v>724.9671024045</v>
       </c>
       <c r="S6">
-        <v>0.1166114774084027</v>
+        <v>0.1085329554462632</v>
       </c>
       <c r="T6">
-        <v>0.1166114774084027</v>
+        <v>0.1085329554462633</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>44.06925</v>
       </c>
       <c r="I7">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J7">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>13.118937</v>
       </c>
       <c r="O7">
-        <v>0.3509086099755513</v>
+        <v>0.32690571008764</v>
       </c>
       <c r="P7">
-        <v>0.3509086099755513</v>
+        <v>0.32690571008764</v>
       </c>
       <c r="Q7">
         <v>64.23796826524999</v>
       </c>
       <c r="R7">
-        <v>578.14171438725</v>
+        <v>578.1417143872499</v>
       </c>
       <c r="S7">
-        <v>0.09448150404705206</v>
+        <v>0.08655210522119294</v>
       </c>
       <c r="T7">
-        <v>0.09448150404705206</v>
+        <v>0.08655210522119297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>44.06925</v>
       </c>
       <c r="I8">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J8">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092643333333333</v>
+        <v>2.750327</v>
       </c>
       <c r="N8">
-        <v>6.27793</v>
+        <v>8.250980999999999</v>
       </c>
       <c r="O8">
-        <v>0.1679236427329297</v>
+        <v>0.2056029999019452</v>
       </c>
       <c r="P8">
-        <v>0.1679236427329297</v>
+        <v>0.2056029999019452</v>
       </c>
       <c r="Q8">
-        <v>30.74040740583333</v>
+        <v>40.40161604824999</v>
       </c>
       <c r="R8">
-        <v>276.6636666525</v>
+        <v>363.6145444342499</v>
       </c>
       <c r="S8">
-        <v>0.0452131349286996</v>
+        <v>0.0544357958034301</v>
       </c>
       <c r="T8">
-        <v>0.0452131349286996</v>
+        <v>0.05443579580343011</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>44.06925</v>
       </c>
       <c r="I9">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J9">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5990099999999999</v>
+        <v>0.770031</v>
       </c>
       <c r="N9">
-        <v>1.79703</v>
+        <v>2.310093</v>
       </c>
       <c r="O9">
-        <v>0.04806740815847845</v>
+        <v>0.05756431275899004</v>
       </c>
       <c r="P9">
-        <v>0.04806740815847846</v>
+        <v>0.05756431275899004</v>
       </c>
       <c r="Q9">
-        <v>8.799307147499999</v>
+        <v>11.31156288225</v>
       </c>
       <c r="R9">
-        <v>79.19376432749999</v>
+        <v>101.80406594025</v>
       </c>
       <c r="S9">
-        <v>0.01294206209067655</v>
+        <v>0.01524082419229098</v>
       </c>
       <c r="T9">
-        <v>0.01294206209067655</v>
+        <v>0.01524082419229099</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H10">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I10">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J10">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.397242000000001</v>
+        <v>5.483544666666667</v>
       </c>
       <c r="N10">
-        <v>16.191726</v>
+        <v>16.450634</v>
       </c>
       <c r="O10">
-        <v>0.4331003391330406</v>
+        <v>0.4099269772514247</v>
       </c>
       <c r="P10">
-        <v>0.4331003391330406</v>
+        <v>0.4099269772514247</v>
       </c>
       <c r="Q10">
-        <v>117.5309121005714</v>
+        <v>104.9743872098876</v>
       </c>
       <c r="R10">
-        <v>1057.778208905142</v>
+        <v>944.769484888988</v>
       </c>
       <c r="S10">
-        <v>0.1728650149928685</v>
+        <v>0.1414390033290553</v>
       </c>
       <c r="T10">
-        <v>0.1728650149928685</v>
+        <v>0.1414390033290553</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H11">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I11">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J11">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.118937</v>
       </c>
       <c r="O11">
-        <v>0.3509086099755513</v>
+        <v>0.32690571008764</v>
       </c>
       <c r="P11">
-        <v>0.3509086099755513</v>
+        <v>0.32690571008764</v>
       </c>
       <c r="Q11">
-        <v>95.22645278211434</v>
+        <v>83.71424301459267</v>
       </c>
       <c r="R11">
-        <v>857.0380750390291</v>
+        <v>753.428187131334</v>
       </c>
       <c r="S11">
-        <v>0.1400595119504552</v>
+        <v>0.1127937910488232</v>
       </c>
       <c r="T11">
-        <v>0.1400595119504552</v>
+        <v>0.1127937910488232</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H12">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I12">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J12">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.092643333333333</v>
+        <v>2.750327</v>
       </c>
       <c r="N12">
-        <v>6.27793</v>
+        <v>8.250980999999999</v>
       </c>
       <c r="O12">
-        <v>0.1679236427329297</v>
+        <v>0.2056029999019452</v>
       </c>
       <c r="P12">
-        <v>0.1679236427329297</v>
+        <v>0.2056029999019452</v>
       </c>
       <c r="Q12">
-        <v>45.56962234931222</v>
+        <v>52.65096010010467</v>
       </c>
       <c r="R12">
-        <v>410.12660114381</v>
+        <v>473.858640900942</v>
       </c>
       <c r="S12">
-        <v>0.06702401359646147</v>
+        <v>0.07094015520173702</v>
       </c>
       <c r="T12">
-        <v>0.06702401359646147</v>
+        <v>0.07094015520173702</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H13">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I13">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J13">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5990099999999999</v>
+        <v>0.770031</v>
       </c>
       <c r="N13">
-        <v>1.79703</v>
+        <v>2.310093</v>
       </c>
       <c r="O13">
-        <v>0.04806740815847845</v>
+        <v>0.05756431275899004</v>
       </c>
       <c r="P13">
-        <v>0.04806740815847846</v>
+        <v>0.05756431275899004</v>
       </c>
       <c r="Q13">
-        <v>13.04410505539</v>
+        <v>14.741109496014</v>
       </c>
       <c r="R13">
-        <v>117.39694549851</v>
+        <v>132.669985464126</v>
       </c>
       <c r="S13">
-        <v>0.01918533069869354</v>
+        <v>0.01986168141102813</v>
       </c>
       <c r="T13">
-        <v>0.01918533069869354</v>
+        <v>0.01986168141102813</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H14">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I14">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J14">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.397242000000001</v>
+        <v>5.483544666666667</v>
       </c>
       <c r="N14">
-        <v>16.191726</v>
+        <v>16.450634</v>
       </c>
       <c r="O14">
-        <v>0.4331003391330406</v>
+        <v>0.4099269772514247</v>
       </c>
       <c r="P14">
-        <v>0.4331003391330406</v>
+        <v>0.4099269772514247</v>
       </c>
       <c r="Q14">
-        <v>10.62102024028134</v>
+        <v>11.34333178354733</v>
       </c>
       <c r="R14">
-        <v>95.58918216253201</v>
+        <v>102.089986051926</v>
       </c>
       <c r="S14">
-        <v>0.01562144622433222</v>
+        <v>0.01528362855491489</v>
       </c>
       <c r="T14">
-        <v>0.01562144622433222</v>
+        <v>0.01528362855491489</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H15">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I15">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J15">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>13.118937</v>
       </c>
       <c r="O15">
-        <v>0.3509086099755513</v>
+        <v>0.32690571008764</v>
       </c>
       <c r="P15">
-        <v>0.3509086099755513</v>
+        <v>0.32690571008764</v>
       </c>
       <c r="Q15">
-        <v>8.605413370259333</v>
+        <v>9.046001208127</v>
       </c>
       <c r="R15">
-        <v>77.44872033233401</v>
+        <v>81.414010873143</v>
       </c>
       <c r="S15">
-        <v>0.01265688221662732</v>
+        <v>0.01218828162752447</v>
       </c>
       <c r="T15">
-        <v>0.01265688221662732</v>
+        <v>0.01218828162752448</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H16">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I16">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J16">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.092643333333333</v>
+        <v>2.750327</v>
       </c>
       <c r="N16">
-        <v>6.27793</v>
+        <v>8.250980999999999</v>
       </c>
       <c r="O16">
-        <v>0.1679236427329297</v>
+        <v>0.2056029999019452</v>
       </c>
       <c r="P16">
-        <v>0.1679236427329297</v>
+        <v>0.2056029999019452</v>
       </c>
       <c r="Q16">
-        <v>4.118030505028889</v>
+        <v>5.689362186451</v>
       </c>
       <c r="R16">
-        <v>37.06227454526</v>
+        <v>51.204259678059</v>
       </c>
       <c r="S16">
-        <v>0.006056818519231488</v>
+        <v>0.007665657677245765</v>
       </c>
       <c r="T16">
-        <v>0.006056818519231488</v>
+        <v>0.007665657677245766</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H17">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I17">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J17">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5990099999999999</v>
+        <v>0.770031</v>
       </c>
       <c r="N17">
-        <v>1.79703</v>
+        <v>2.310093</v>
       </c>
       <c r="O17">
-        <v>0.04806740815847845</v>
+        <v>0.05756431275899004</v>
       </c>
       <c r="P17">
-        <v>0.04806740815847846</v>
+        <v>0.05756431275899004</v>
       </c>
       <c r="Q17">
-        <v>1.17876821794</v>
+        <v>1.592896137003</v>
       </c>
       <c r="R17">
-        <v>10.60891396146</v>
+        <v>14.336065233027</v>
       </c>
       <c r="S17">
-        <v>0.001733737805871451</v>
+        <v>0.002146215357980063</v>
       </c>
       <c r="T17">
-        <v>0.001733737805871451</v>
+        <v>0.002146215357980063</v>
       </c>
     </row>
   </sheetData>
